--- a/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
+++ b/SyncLogs/SynchronizeLogAllEntries - tasks.xlsx
@@ -2,90 +2,162 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheets>
-    <sheet sheetId="1" name="SynchronizeLogAllEntries" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="delete_log_step1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
-  <si>
-    <t>WorkbookName</t>
-  </si>
-  <si>
-    <t>SysSettings.xlsx</t>
-  </si>
-  <si>
-    <t>SheetName</t>
-  </si>
-  <si>
-    <t>Interpol_Extrapol_Defaults</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>SysSettings</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>ACTCOST</t>
-  </si>
-  <si>
-    <t>ACT_BND</t>
-  </si>
-  <si>
-    <t>MessageCategory</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>No records were generated for this row</t>
-  </si>
-  <si>
-    <t>CellAddress</t>
-  </si>
-  <si>
-    <t>36,2</t>
-  </si>
-  <si>
-    <t>37,2</t>
-  </si>
-  <si>
-    <t>5,2</t>
-  </si>
-  <si>
-    <t>TagType</t>
-  </si>
-  <si>
-    <t>TFM_UPD</t>
-  </si>
-  <si>
-    <t>TFM_MIG</t>
-  </si>
-  <si>
-    <t>ProcessFilter</t>
-  </si>
-  <si>
-    <t>{"pset_pn": "IMP*Z", "pset_set": "IRE"}</t>
-  </si>
-  <si>
-    <t>{"pset_pn": "IMPDEMZ", "pset_set": "IRE"}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>VD_EMCB</t>
+  </si>
+  <si>
+    <t>cell_address</t>
+  </si>
+  <si>
+    <t>8,4</t>
+  </si>
+  <si>
+    <t>8,5</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>8,7</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>cell_address2</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>CommodityFilter</t>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>TRALPG</t>
+  </si>
+  <si>
+    <t>TRAGSL</t>
+  </si>
+  <si>
+    <t>TRAKER</t>
+  </si>
+  <si>
+    <t>TRADSL</t>
+  </si>
+  <si>
+    <t>TRAHFO</t>
+  </si>
+  <si>
+    <t>TRAGAS</t>
+  </si>
+  <si>
+    <t>commodity2</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>import_export</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>Attribute is invalid</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>region2</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>scenario2</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>sector2</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>Emi</t>
+  </si>
+  <si>
+    <t>sheet_name2</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>time_slice2</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>user_constraint</t>
+  </si>
+  <si>
+    <t>user_constraint_group</t>
+  </si>
+  <si>
+    <t>val_field</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>relative_path</t>
+  </si>
+  <si>
+    <t>VT_REG1_PRI_V07_sl.xlsx</t>
   </si>
 </sst>
 </file>
@@ -250,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView zoomScale="100" topLeftCell="A1" workbookViewId="0" showGridLines="true" showRowColHeaders="true" view="normal"/>
   </sheetViews>
@@ -264,31 +336,91 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -299,31 +431,91 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -331,34 +523,94 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -366,34 +618,379 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>74</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>56</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
